--- a/public/assets/EmployeeImport.xlsx
+++ b/public/assets/EmployeeImport.xlsx
@@ -36,9 +36,6 @@
     <t>Perempuan</t>
   </si>
   <si>
-    <t>spgmtc</t>
-  </si>
-  <si>
     <t>Mobile</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>WIB</t>
   </si>
   <si>
-    <t>tlmtc</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>NIK</t>
+  </si>
+  <si>
+    <t>SPG</t>
+  </si>
+  <si>
+    <t>TL MTC</t>
   </si>
 </sst>
 </file>
@@ -506,8 +506,8 @@
   </sheetPr>
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -515,84 +515,84 @@
     <col min="1" max="3" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="X1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>423442323</v>
       </c>
@@ -618,51 +618,51 @@
         <v>4</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="X2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>32523</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>1345454352345400</v>
@@ -671,7 +671,7 @@
         <v>5332426436</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
@@ -683,51 +683,51 @@
         <v>4</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="X3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2424</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>1345452432523450</v>
@@ -736,10 +736,10 @@
         <v>5335</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>3</v>
@@ -748,13 +748,13 @@
         <v>4</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="X4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/EmployeeImport.xlsx
+++ b/public/assets/EmployeeImport.xlsx
@@ -25,73 +25,73 @@
     <t xml:space="preserve">NIK</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
+    <t xml:space="preserve">NAME</t>
   </si>
   <si>
     <t xml:space="preserve">KTP</t>
   </si>
   <si>
-    <t xml:space="preserve">Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timezone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rekening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Join Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subarea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Channel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales Tier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timezone Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education</t>
+    <t xml:space="preserve">PHONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMEZONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REKENING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOIN DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGENCY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIRTH DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBAREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANNEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSWORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALES TIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMEZONE STORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCATION</t>
   </si>
   <si>
     <t xml:space="preserve">13111</t>
@@ -168,7 +168,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -270,6 +270,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -427,12 +435,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -543,8 +559,8 @@
   </sheetPr>
   <dimension ref="A1:Y65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -553,7 +569,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,58 +642,58 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="R2" s="0" t="s">
@@ -698,7 +714,7 @@
       <c r="W2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="4" t="s">
         <v>45</v>
       </c>
     </row>

--- a/public/assets/EmployeeImport.xlsx
+++ b/public/assets/EmployeeImport.xlsx
@@ -559,8 +559,8 @@
   </sheetPr>
   <dimension ref="A1:Y65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/assets/EmployeeImport.xlsx
+++ b/public/assets/EmployeeImport.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>NIK</t>
   </si>
@@ -85,25 +85,40 @@
     <t>EDUCATION</t>
   </si>
   <si>
+    <t>13111</t>
+  </si>
+  <si>
     <t>Yasser MTC</t>
   </si>
   <si>
     <t>1312312312312398</t>
   </si>
   <si>
+    <t>02177180001</t>
+  </si>
+  <si>
     <t>yasser@sada.co.id</t>
   </si>
   <si>
     <t>WIB</t>
   </si>
   <si>
+    <t>99881239</t>
+  </si>
+  <si>
     <t>Permata Syariah</t>
   </si>
   <si>
+    <t>2018-11-01</t>
+  </si>
+  <si>
     <t>Agency Name</t>
   </si>
   <si>
     <t>Laki-laki</t>
+  </si>
+  <si>
+    <t>1989-01-01</t>
   </si>
   <si>
     <t>MD</t>
@@ -140,9 +155,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10.0"/>
@@ -186,10 +198,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -289,77 +301,77 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>13111.0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.177180001E9</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="3">
-        <v>9.9881239E7</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="4">
-        <v>43405.0</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="4">
-        <v>32509.0</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
